--- a/Article.xlsx
+++ b/Article.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>article</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>36.02</t>
+  </si>
+  <si>
+    <t>prachat</t>
   </si>
 </sst>
 </file>
@@ -387,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,97 +406,119 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Article.xlsx
+++ b/Article.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="418">
   <si>
     <t>article</t>
   </si>
@@ -33,30 +33,12 @@
     <t>qty</t>
   </si>
   <si>
-    <t>article 1</t>
-  </si>
-  <si>
     <t>marque x</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>article 2</t>
-  </si>
-  <si>
-    <t>article 3</t>
-  </si>
-  <si>
-    <t>article 4</t>
-  </si>
-  <si>
-    <t>article 5</t>
-  </si>
-  <si>
-    <t>article 6</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -73,6 +55,1224 @@
   </si>
   <si>
     <t>prachat</t>
+  </si>
+  <si>
+    <t>article 7</t>
+  </si>
+  <si>
+    <t>article 8</t>
+  </si>
+  <si>
+    <t>article 9</t>
+  </si>
+  <si>
+    <t>article 10</t>
+  </si>
+  <si>
+    <t>article 11</t>
+  </si>
+  <si>
+    <t>article 12</t>
+  </si>
+  <si>
+    <t>article 13</t>
+  </si>
+  <si>
+    <t>article 14</t>
+  </si>
+  <si>
+    <t>article 15</t>
+  </si>
+  <si>
+    <t>article 16</t>
+  </si>
+  <si>
+    <t>article 17</t>
+  </si>
+  <si>
+    <t>article 18</t>
+  </si>
+  <si>
+    <t>article 19</t>
+  </si>
+  <si>
+    <t>article 20</t>
+  </si>
+  <si>
+    <t>article 21</t>
+  </si>
+  <si>
+    <t>article 22</t>
+  </si>
+  <si>
+    <t>article 23</t>
+  </si>
+  <si>
+    <t>article 24</t>
+  </si>
+  <si>
+    <t>article 25</t>
+  </si>
+  <si>
+    <t>article 26</t>
+  </si>
+  <si>
+    <t>article 27</t>
+  </si>
+  <si>
+    <t>article 28</t>
+  </si>
+  <si>
+    <t>article 29</t>
+  </si>
+  <si>
+    <t>article 30</t>
+  </si>
+  <si>
+    <t>article 31</t>
+  </si>
+  <si>
+    <t>article 32</t>
+  </si>
+  <si>
+    <t>article 33</t>
+  </si>
+  <si>
+    <t>article 34</t>
+  </si>
+  <si>
+    <t>article 35</t>
+  </si>
+  <si>
+    <t>article 36</t>
+  </si>
+  <si>
+    <t>article 37</t>
+  </si>
+  <si>
+    <t>article 38</t>
+  </si>
+  <si>
+    <t>article 39</t>
+  </si>
+  <si>
+    <t>article 40</t>
+  </si>
+  <si>
+    <t>article 41</t>
+  </si>
+  <si>
+    <t>article 42</t>
+  </si>
+  <si>
+    <t>article 43</t>
+  </si>
+  <si>
+    <t>article 44</t>
+  </si>
+  <si>
+    <t>article 45</t>
+  </si>
+  <si>
+    <t>article 46</t>
+  </si>
+  <si>
+    <t>article 47</t>
+  </si>
+  <si>
+    <t>article 48</t>
+  </si>
+  <si>
+    <t>article 49</t>
+  </si>
+  <si>
+    <t>article 50</t>
+  </si>
+  <si>
+    <t>article 51</t>
+  </si>
+  <si>
+    <t>article 52</t>
+  </si>
+  <si>
+    <t>article 53</t>
+  </si>
+  <si>
+    <t>article 54</t>
+  </si>
+  <si>
+    <t>article 55</t>
+  </si>
+  <si>
+    <t>article 56</t>
+  </si>
+  <si>
+    <t>article 57</t>
+  </si>
+  <si>
+    <t>article 58</t>
+  </si>
+  <si>
+    <t>article 59</t>
+  </si>
+  <si>
+    <t>article 60</t>
+  </si>
+  <si>
+    <t>article 61</t>
+  </si>
+  <si>
+    <t>article 62</t>
+  </si>
+  <si>
+    <t>article 63</t>
+  </si>
+  <si>
+    <t>article 64</t>
+  </si>
+  <si>
+    <t>article 65</t>
+  </si>
+  <si>
+    <t>article 66</t>
+  </si>
+  <si>
+    <t>article 67</t>
+  </si>
+  <si>
+    <t>article 68</t>
+  </si>
+  <si>
+    <t>article 69</t>
+  </si>
+  <si>
+    <t>article 70</t>
+  </si>
+  <si>
+    <t>article 71</t>
+  </si>
+  <si>
+    <t>article 72</t>
+  </si>
+  <si>
+    <t>article 73</t>
+  </si>
+  <si>
+    <t>article 74</t>
+  </si>
+  <si>
+    <t>article 75</t>
+  </si>
+  <si>
+    <t>article 76</t>
+  </si>
+  <si>
+    <t>article 77</t>
+  </si>
+  <si>
+    <t>article 78</t>
+  </si>
+  <si>
+    <t>article 79</t>
+  </si>
+  <si>
+    <t>article 80</t>
+  </si>
+  <si>
+    <t>article 81</t>
+  </si>
+  <si>
+    <t>article 82</t>
+  </si>
+  <si>
+    <t>article 83</t>
+  </si>
+  <si>
+    <t>article 84</t>
+  </si>
+  <si>
+    <t>article 85</t>
+  </si>
+  <si>
+    <t>article 86</t>
+  </si>
+  <si>
+    <t>article 87</t>
+  </si>
+  <si>
+    <t>article 88</t>
+  </si>
+  <si>
+    <t>article 89</t>
+  </si>
+  <si>
+    <t>article 90</t>
+  </si>
+  <si>
+    <t>article 91</t>
+  </si>
+  <si>
+    <t>article 92</t>
+  </si>
+  <si>
+    <t>article 93</t>
+  </si>
+  <si>
+    <t>article 94</t>
+  </si>
+  <si>
+    <t>article 95</t>
+  </si>
+  <si>
+    <t>article 96</t>
+  </si>
+  <si>
+    <t>article 97</t>
+  </si>
+  <si>
+    <t>article 98</t>
+  </si>
+  <si>
+    <t>article 99</t>
+  </si>
+  <si>
+    <t>article 100</t>
+  </si>
+  <si>
+    <t>article 101</t>
+  </si>
+  <si>
+    <t>article 102</t>
+  </si>
+  <si>
+    <t>article 103</t>
+  </si>
+  <si>
+    <t>article 104</t>
+  </si>
+  <si>
+    <t>article 105</t>
+  </si>
+  <si>
+    <t>article 106</t>
+  </si>
+  <si>
+    <t>article 107</t>
+  </si>
+  <si>
+    <t>article 108</t>
+  </si>
+  <si>
+    <t>article 109</t>
+  </si>
+  <si>
+    <t>article 110</t>
+  </si>
+  <si>
+    <t>article 111</t>
+  </si>
+  <si>
+    <t>article 112</t>
+  </si>
+  <si>
+    <t>article 113</t>
+  </si>
+  <si>
+    <t>article 114</t>
+  </si>
+  <si>
+    <t>article 115</t>
+  </si>
+  <si>
+    <t>article 116</t>
+  </si>
+  <si>
+    <t>article 117</t>
+  </si>
+  <si>
+    <t>article 118</t>
+  </si>
+  <si>
+    <t>article 119</t>
+  </si>
+  <si>
+    <t>article 120</t>
+  </si>
+  <si>
+    <t>article 121</t>
+  </si>
+  <si>
+    <t>article 122</t>
+  </si>
+  <si>
+    <t>article 123</t>
+  </si>
+  <si>
+    <t>article 124</t>
+  </si>
+  <si>
+    <t>article 125</t>
+  </si>
+  <si>
+    <t>article 126</t>
+  </si>
+  <si>
+    <t>article 127</t>
+  </si>
+  <si>
+    <t>article 128</t>
+  </si>
+  <si>
+    <t>article 129</t>
+  </si>
+  <si>
+    <t>article 130</t>
+  </si>
+  <si>
+    <t>article 131</t>
+  </si>
+  <si>
+    <t>article 132</t>
+  </si>
+  <si>
+    <t>article 133</t>
+  </si>
+  <si>
+    <t>article 134</t>
+  </si>
+  <si>
+    <t>article 135</t>
+  </si>
+  <si>
+    <t>article 136</t>
+  </si>
+  <si>
+    <t>article 137</t>
+  </si>
+  <si>
+    <t>article 138</t>
+  </si>
+  <si>
+    <t>article 139</t>
+  </si>
+  <si>
+    <t>article 140</t>
+  </si>
+  <si>
+    <t>article 141</t>
+  </si>
+  <si>
+    <t>article 142</t>
+  </si>
+  <si>
+    <t>article 143</t>
+  </si>
+  <si>
+    <t>article 144</t>
+  </si>
+  <si>
+    <t>article 145</t>
+  </si>
+  <si>
+    <t>article 146</t>
+  </si>
+  <si>
+    <t>article 147</t>
+  </si>
+  <si>
+    <t>article 148</t>
+  </si>
+  <si>
+    <t>article 149</t>
+  </si>
+  <si>
+    <t>article 150</t>
+  </si>
+  <si>
+    <t>article 151</t>
+  </si>
+  <si>
+    <t>article 152</t>
+  </si>
+  <si>
+    <t>article 153</t>
+  </si>
+  <si>
+    <t>article 154</t>
+  </si>
+  <si>
+    <t>article 155</t>
+  </si>
+  <si>
+    <t>article 156</t>
+  </si>
+  <si>
+    <t>article 157</t>
+  </si>
+  <si>
+    <t>article 158</t>
+  </si>
+  <si>
+    <t>article 159</t>
+  </si>
+  <si>
+    <t>article 160</t>
+  </si>
+  <si>
+    <t>article 161</t>
+  </si>
+  <si>
+    <t>article 162</t>
+  </si>
+  <si>
+    <t>article 163</t>
+  </si>
+  <si>
+    <t>article 164</t>
+  </si>
+  <si>
+    <t>article 165</t>
+  </si>
+  <si>
+    <t>article 166</t>
+  </si>
+  <si>
+    <t>article 167</t>
+  </si>
+  <si>
+    <t>article 168</t>
+  </si>
+  <si>
+    <t>article 169</t>
+  </si>
+  <si>
+    <t>article 170</t>
+  </si>
+  <si>
+    <t>article 171</t>
+  </si>
+  <si>
+    <t>article 172</t>
+  </si>
+  <si>
+    <t>article 173</t>
+  </si>
+  <si>
+    <t>article 174</t>
+  </si>
+  <si>
+    <t>article 175</t>
+  </si>
+  <si>
+    <t>article 176</t>
+  </si>
+  <si>
+    <t>article 177</t>
+  </si>
+  <si>
+    <t>article 178</t>
+  </si>
+  <si>
+    <t>article 179</t>
+  </si>
+  <si>
+    <t>article 180</t>
+  </si>
+  <si>
+    <t>article 181</t>
+  </si>
+  <si>
+    <t>article 182</t>
+  </si>
+  <si>
+    <t>article 183</t>
+  </si>
+  <si>
+    <t>article 184</t>
+  </si>
+  <si>
+    <t>article 185</t>
+  </si>
+  <si>
+    <t>article 186</t>
+  </si>
+  <si>
+    <t>article 187</t>
+  </si>
+  <si>
+    <t>article 188</t>
+  </si>
+  <si>
+    <t>article 189</t>
+  </si>
+  <si>
+    <t>article 190</t>
+  </si>
+  <si>
+    <t>article 191</t>
+  </si>
+  <si>
+    <t>article 192</t>
+  </si>
+  <si>
+    <t>article 193</t>
+  </si>
+  <si>
+    <t>article 194</t>
+  </si>
+  <si>
+    <t>article 195</t>
+  </si>
+  <si>
+    <t>article 196</t>
+  </si>
+  <si>
+    <t>article 197</t>
+  </si>
+  <si>
+    <t>article 198</t>
+  </si>
+  <si>
+    <t>article 199</t>
+  </si>
+  <si>
+    <t>article 200</t>
+  </si>
+  <si>
+    <t>article 201</t>
+  </si>
+  <si>
+    <t>article 202</t>
+  </si>
+  <si>
+    <t>article 203</t>
+  </si>
+  <si>
+    <t>article 204</t>
+  </si>
+  <si>
+    <t>article 205</t>
+  </si>
+  <si>
+    <t>article 206</t>
+  </si>
+  <si>
+    <t>article 207</t>
+  </si>
+  <si>
+    <t>article 208</t>
+  </si>
+  <si>
+    <t>article 209</t>
+  </si>
+  <si>
+    <t>article 210</t>
+  </si>
+  <si>
+    <t>article 211</t>
+  </si>
+  <si>
+    <t>article 212</t>
+  </si>
+  <si>
+    <t>36.03</t>
+  </si>
+  <si>
+    <t>36.04</t>
+  </si>
+  <si>
+    <t>36.05</t>
+  </si>
+  <si>
+    <t>36.06</t>
+  </si>
+  <si>
+    <t>36.07</t>
+  </si>
+  <si>
+    <t>36.08</t>
+  </si>
+  <si>
+    <t>36.09</t>
+  </si>
+  <si>
+    <t>36.10</t>
+  </si>
+  <si>
+    <t>36.11</t>
+  </si>
+  <si>
+    <t>36.12</t>
+  </si>
+  <si>
+    <t>36.13</t>
+  </si>
+  <si>
+    <t>36.14</t>
+  </si>
+  <si>
+    <t>36.15</t>
+  </si>
+  <si>
+    <t>36.16</t>
+  </si>
+  <si>
+    <t>36.17</t>
+  </si>
+  <si>
+    <t>36.18</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>36.20</t>
+  </si>
+  <si>
+    <t>36.21</t>
+  </si>
+  <si>
+    <t>36.22</t>
+  </si>
+  <si>
+    <t>36.23</t>
+  </si>
+  <si>
+    <t>36.24</t>
+  </si>
+  <si>
+    <t>36.25</t>
+  </si>
+  <si>
+    <t>36.26</t>
+  </si>
+  <si>
+    <t>36.27</t>
+  </si>
+  <si>
+    <t>36.28</t>
+  </si>
+  <si>
+    <t>36.29</t>
+  </si>
+  <si>
+    <t>36.30</t>
+  </si>
+  <si>
+    <t>36.31</t>
+  </si>
+  <si>
+    <t>36.32</t>
+  </si>
+  <si>
+    <t>36.33</t>
+  </si>
+  <si>
+    <t>36.34</t>
+  </si>
+  <si>
+    <t>36.35</t>
+  </si>
+  <si>
+    <t>36.36</t>
+  </si>
+  <si>
+    <t>36.37</t>
+  </si>
+  <si>
+    <t>36.38</t>
+  </si>
+  <si>
+    <t>36.39</t>
+  </si>
+  <si>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>36.41</t>
+  </si>
+  <si>
+    <t>36.42</t>
+  </si>
+  <si>
+    <t>36.43</t>
+  </si>
+  <si>
+    <t>36.44</t>
+  </si>
+  <si>
+    <t>36.45</t>
+  </si>
+  <si>
+    <t>36.46</t>
+  </si>
+  <si>
+    <t>36.47</t>
+  </si>
+  <si>
+    <t>36.48</t>
+  </si>
+  <si>
+    <t>36.49</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.51</t>
+  </si>
+  <si>
+    <t>36.52</t>
+  </si>
+  <si>
+    <t>36.53</t>
+  </si>
+  <si>
+    <t>36.54</t>
+  </si>
+  <si>
+    <t>36.55</t>
+  </si>
+  <si>
+    <t>36.56</t>
+  </si>
+  <si>
+    <t>36.57</t>
+  </si>
+  <si>
+    <t>36.58</t>
+  </si>
+  <si>
+    <t>36.59</t>
+  </si>
+  <si>
+    <t>36.60</t>
+  </si>
+  <si>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>36.62</t>
+  </si>
+  <si>
+    <t>36.63</t>
+  </si>
+  <si>
+    <t>36.64</t>
+  </si>
+  <si>
+    <t>36.65</t>
+  </si>
+  <si>
+    <t>36.66</t>
+  </si>
+  <si>
+    <t>36.67</t>
+  </si>
+  <si>
+    <t>36.68</t>
+  </si>
+  <si>
+    <t>36.69</t>
+  </si>
+  <si>
+    <t>36.70</t>
+  </si>
+  <si>
+    <t>36.71</t>
+  </si>
+  <si>
+    <t>36.72</t>
+  </si>
+  <si>
+    <t>36.73</t>
+  </si>
+  <si>
+    <t>36.74</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>36.76</t>
+  </si>
+  <si>
+    <t>36.77</t>
+  </si>
+  <si>
+    <t>36.78</t>
+  </si>
+  <si>
+    <t>36.79</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>36.81</t>
+  </si>
+  <si>
+    <t>36.82</t>
+  </si>
+  <si>
+    <t>36.83</t>
+  </si>
+  <si>
+    <t>36.84</t>
+  </si>
+  <si>
+    <t>36.85</t>
+  </si>
+  <si>
+    <t>36.86</t>
+  </si>
+  <si>
+    <t>36.87</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>36.89</t>
+  </si>
+  <si>
+    <t>36.90</t>
+  </si>
+  <si>
+    <t>36.91</t>
+  </si>
+  <si>
+    <t>36.92</t>
+  </si>
+  <si>
+    <t>36.93</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>36.95</t>
+  </si>
+  <si>
+    <t>36.96</t>
+  </si>
+  <si>
+    <t>36.97</t>
+  </si>
+  <si>
+    <t>36.98</t>
+  </si>
+  <si>
+    <t>36.99</t>
+  </si>
+  <si>
+    <t>36.100</t>
+  </si>
+  <si>
+    <t>36.101</t>
+  </si>
+  <si>
+    <t>36.102</t>
+  </si>
+  <si>
+    <t>36.103</t>
+  </si>
+  <si>
+    <t>36.104</t>
+  </si>
+  <si>
+    <t>36.105</t>
+  </si>
+  <si>
+    <t>36.106</t>
+  </si>
+  <si>
+    <t>36.107</t>
+  </si>
+  <si>
+    <t>36.108</t>
+  </si>
+  <si>
+    <t>36.109</t>
+  </si>
+  <si>
+    <t>36.110</t>
+  </si>
+  <si>
+    <t>36.111</t>
+  </si>
+  <si>
+    <t>36.112</t>
+  </si>
+  <si>
+    <t>36.113</t>
+  </si>
+  <si>
+    <t>36.114</t>
+  </si>
+  <si>
+    <t>36.115</t>
+  </si>
+  <si>
+    <t>36.116</t>
+  </si>
+  <si>
+    <t>36.117</t>
+  </si>
+  <si>
+    <t>36.118</t>
+  </si>
+  <si>
+    <t>36.119</t>
+  </si>
+  <si>
+    <t>36.120</t>
+  </si>
+  <si>
+    <t>36.121</t>
+  </si>
+  <si>
+    <t>36.122</t>
+  </si>
+  <si>
+    <t>36.123</t>
+  </si>
+  <si>
+    <t>36.124</t>
+  </si>
+  <si>
+    <t>36.125</t>
+  </si>
+  <si>
+    <t>36.126</t>
+  </si>
+  <si>
+    <t>36.127</t>
+  </si>
+  <si>
+    <t>36.128</t>
+  </si>
+  <si>
+    <t>36.129</t>
+  </si>
+  <si>
+    <t>36.130</t>
+  </si>
+  <si>
+    <t>36.131</t>
+  </si>
+  <si>
+    <t>36.132</t>
+  </si>
+  <si>
+    <t>36.133</t>
+  </si>
+  <si>
+    <t>36.134</t>
+  </si>
+  <si>
+    <t>36.135</t>
+  </si>
+  <si>
+    <t>36.136</t>
+  </si>
+  <si>
+    <t>36.137</t>
+  </si>
+  <si>
+    <t>36.138</t>
+  </si>
+  <si>
+    <t>36.139</t>
+  </si>
+  <si>
+    <t>36.140</t>
+  </si>
+  <si>
+    <t>36.141</t>
+  </si>
+  <si>
+    <t>36.142</t>
+  </si>
+  <si>
+    <t>36.143</t>
+  </si>
+  <si>
+    <t>36.144</t>
+  </si>
+  <si>
+    <t>36.145</t>
+  </si>
+  <si>
+    <t>36.146</t>
+  </si>
+  <si>
+    <t>36.147</t>
+  </si>
+  <si>
+    <t>36.148</t>
+  </si>
+  <si>
+    <t>36.149</t>
+  </si>
+  <si>
+    <t>36.150</t>
+  </si>
+  <si>
+    <t>36.151</t>
+  </si>
+  <si>
+    <t>36.152</t>
+  </si>
+  <si>
+    <t>36.153</t>
+  </si>
+  <si>
+    <t>36.154</t>
+  </si>
+  <si>
+    <t>36.155</t>
+  </si>
+  <si>
+    <t>36.156</t>
+  </si>
+  <si>
+    <t>36.157</t>
+  </si>
+  <si>
+    <t>36.158</t>
+  </si>
+  <si>
+    <t>36.159</t>
+  </si>
+  <si>
+    <t>36.160</t>
+  </si>
+  <si>
+    <t>36.161</t>
+  </si>
+  <si>
+    <t>36.162</t>
+  </si>
+  <si>
+    <t>36.163</t>
+  </si>
+  <si>
+    <t>36.164</t>
+  </si>
+  <si>
+    <t>36.165</t>
+  </si>
+  <si>
+    <t>36.166</t>
+  </si>
+  <si>
+    <t>36.167</t>
+  </si>
+  <si>
+    <t>36.168</t>
+  </si>
+  <si>
+    <t>36.169</t>
+  </si>
+  <si>
+    <t>36.170</t>
+  </si>
+  <si>
+    <t>36.171</t>
+  </si>
+  <si>
+    <t>36.172</t>
+  </si>
+  <si>
+    <t>36.173</t>
+  </si>
+  <si>
+    <t>36.174</t>
+  </si>
+  <si>
+    <t>36.175</t>
+  </si>
+  <si>
+    <t>36.176</t>
+  </si>
+  <si>
+    <t>36.177</t>
+  </si>
+  <si>
+    <t>36.178</t>
+  </si>
+  <si>
+    <t>36.179</t>
+  </si>
+  <si>
+    <t>36.180</t>
+  </si>
+  <si>
+    <t>36.181</t>
+  </si>
+  <si>
+    <t>36.182</t>
+  </si>
+  <si>
+    <t>36.183</t>
+  </si>
+  <si>
+    <t>36.184</t>
+  </si>
+  <si>
+    <t>36.185</t>
+  </si>
+  <si>
+    <t>36.186</t>
+  </si>
+  <si>
+    <t>36.187</t>
+  </si>
+  <si>
+    <t>36.188</t>
+  </si>
+  <si>
+    <t>36.189</t>
+  </si>
+  <si>
+    <t>36.190</t>
+  </si>
+  <si>
+    <t>36.191</t>
+  </si>
+  <si>
+    <t>36.192</t>
+  </si>
+  <si>
+    <t>36.193</t>
+  </si>
+  <si>
+    <t>36.194</t>
+  </si>
+  <si>
+    <t>36.195</t>
+  </si>
+  <si>
+    <t>36.196</t>
+  </si>
+  <si>
+    <t>36.197</t>
+  </si>
+  <si>
+    <t>36.198</t>
+  </si>
+  <si>
+    <t>36.199</t>
+  </si>
+  <si>
+    <t>36.200</t>
+  </si>
+  <si>
+    <t>36.201</t>
+  </si>
+  <si>
+    <t>36.202</t>
   </si>
 </sst>
 </file>
@@ -390,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="E206" sqref="B206:E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -417,16 +1617,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1200</v>
@@ -434,16 +1634,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1200</v>
@@ -451,16 +1651,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -468,16 +1668,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -485,16 +1685,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -502,19 +1702,3419 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>271</v>
+      </c>
+      <c r="E61">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>77</v>
+      </c>
+      <c r="D64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>80</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>81</v>
+      </c>
+      <c r="D68" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>89</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>91</v>
+      </c>
+      <c r="D78" t="s">
+        <v>288</v>
+      </c>
+      <c r="E78">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>290</v>
+      </c>
+      <c r="E80">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>291</v>
+      </c>
+      <c r="E81">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s">
+        <v>292</v>
+      </c>
+      <c r="E82">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>96</v>
+      </c>
+      <c r="D83" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>99</v>
+      </c>
+      <c r="D86" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>297</v>
+      </c>
+      <c r="E87">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>300</v>
+      </c>
+      <c r="E90">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>304</v>
+      </c>
+      <c r="E94">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>307</v>
+      </c>
+      <c r="E97">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>314</v>
+      </c>
+      <c r="E104">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>318</v>
+      </c>
+      <c r="E108">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>123</v>
+      </c>
+      <c r="D110" t="s">
+        <v>320</v>
+      </c>
+      <c r="E110">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E112">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>126</v>
+      </c>
+      <c r="D113" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>127</v>
+      </c>
+      <c r="D114" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>128</v>
+      </c>
+      <c r="D115" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>130</v>
+      </c>
+      <c r="D117" t="s">
+        <v>327</v>
+      </c>
+      <c r="E117">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>134</v>
+      </c>
+      <c r="D121" t="s">
+        <v>331</v>
+      </c>
+      <c r="E121">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>135</v>
+      </c>
+      <c r="D122" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>333</v>
+      </c>
+      <c r="E123">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>334</v>
+      </c>
+      <c r="E124">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>335</v>
+      </c>
+      <c r="E125">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>139</v>
+      </c>
+      <c r="D126" t="s">
+        <v>336</v>
+      </c>
+      <c r="E126">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>337</v>
+      </c>
+      <c r="E127">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E130">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>341</v>
+      </c>
+      <c r="E131">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>145</v>
+      </c>
+      <c r="D132" t="s">
+        <v>342</v>
+      </c>
+      <c r="E132">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>343</v>
+      </c>
+      <c r="E133">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>344</v>
+      </c>
+      <c r="E134">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>148</v>
+      </c>
+      <c r="D135" t="s">
+        <v>345</v>
+      </c>
+      <c r="E135">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>346</v>
+      </c>
+      <c r="E136">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>347</v>
+      </c>
+      <c r="E137">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>349</v>
+      </c>
+      <c r="E139">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>153</v>
+      </c>
+      <c r="D140" t="s">
+        <v>350</v>
+      </c>
+      <c r="E140">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>154</v>
+      </c>
+      <c r="D141" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>155</v>
+      </c>
+      <c r="D142" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>156</v>
+      </c>
+      <c r="D143" t="s">
+        <v>353</v>
+      </c>
+      <c r="E143">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>157</v>
+      </c>
+      <c r="D144" t="s">
+        <v>354</v>
+      </c>
+      <c r="E144">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>355</v>
+      </c>
+      <c r="E145">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>159</v>
+      </c>
+      <c r="D146" t="s">
+        <v>356</v>
+      </c>
+      <c r="E146">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>160</v>
+      </c>
+      <c r="D147" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>161</v>
+      </c>
+      <c r="D148" t="s">
+        <v>358</v>
+      </c>
+      <c r="E148">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>162</v>
+      </c>
+      <c r="D149" t="s">
+        <v>359</v>
+      </c>
+      <c r="E149">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>361</v>
+      </c>
+      <c r="E151">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>165</v>
+      </c>
+      <c r="D152" t="s">
+        <v>362</v>
+      </c>
+      <c r="E152">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>166</v>
+      </c>
+      <c r="D153" t="s">
+        <v>363</v>
+      </c>
+      <c r="E153">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s">
+        <v>364</v>
+      </c>
+      <c r="E154">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>365</v>
+      </c>
+      <c r="E155">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>169</v>
+      </c>
+      <c r="D156" t="s">
+        <v>366</v>
+      </c>
+      <c r="E156">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>367</v>
+      </c>
+      <c r="E157">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>368</v>
+      </c>
+      <c r="E158">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>172</v>
+      </c>
+      <c r="D159" t="s">
+        <v>369</v>
+      </c>
+      <c r="E159">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>370</v>
+      </c>
+      <c r="E160">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>174</v>
+      </c>
+      <c r="D161" t="s">
+        <v>371</v>
+      </c>
+      <c r="E161">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>175</v>
+      </c>
+      <c r="D162" t="s">
+        <v>372</v>
+      </c>
+      <c r="E162">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>176</v>
+      </c>
+      <c r="D163" t="s">
+        <v>373</v>
+      </c>
+      <c r="E163">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>177</v>
+      </c>
+      <c r="D164" t="s">
+        <v>374</v>
+      </c>
+      <c r="E164">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>178</v>
+      </c>
+      <c r="D165" t="s">
+        <v>375</v>
+      </c>
+      <c r="E165">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>179</v>
+      </c>
+      <c r="D166" t="s">
+        <v>376</v>
+      </c>
+      <c r="E166">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>377</v>
+      </c>
+      <c r="E167">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>181</v>
+      </c>
+      <c r="D168" t="s">
+        <v>378</v>
+      </c>
+      <c r="E168">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>182</v>
+      </c>
+      <c r="D169" t="s">
+        <v>379</v>
+      </c>
+      <c r="E169">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>183</v>
+      </c>
+      <c r="D170" t="s">
+        <v>380</v>
+      </c>
+      <c r="E170">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>381</v>
+      </c>
+      <c r="E171">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>185</v>
+      </c>
+      <c r="D172" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>186</v>
+      </c>
+      <c r="D173" t="s">
+        <v>383</v>
+      </c>
+      <c r="E173">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>187</v>
+      </c>
+      <c r="D174" t="s">
+        <v>384</v>
+      </c>
+      <c r="E174">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>188</v>
+      </c>
+      <c r="D175" t="s">
+        <v>385</v>
+      </c>
+      <c r="E175">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>189</v>
+      </c>
+      <c r="D176" t="s">
+        <v>386</v>
+      </c>
+      <c r="E176">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>190</v>
+      </c>
+      <c r="D177" t="s">
+        <v>387</v>
+      </c>
+      <c r="E177">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>191</v>
+      </c>
+      <c r="D178" t="s">
+        <v>388</v>
+      </c>
+      <c r="E178">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>192</v>
+      </c>
+      <c r="D179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>390</v>
+      </c>
+      <c r="E180">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>391</v>
+      </c>
+      <c r="E181">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>196</v>
+      </c>
+      <c r="D183" t="s">
+        <v>393</v>
+      </c>
+      <c r="E183">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>197</v>
+      </c>
+      <c r="D184" t="s">
+        <v>394</v>
+      </c>
+      <c r="E184">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>198</v>
+      </c>
+      <c r="D185" t="s">
+        <v>395</v>
+      </c>
+      <c r="E185">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>199</v>
+      </c>
+      <c r="D186" t="s">
+        <v>396</v>
+      </c>
+      <c r="E186">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>200</v>
+      </c>
+      <c r="D187" t="s">
+        <v>397</v>
+      </c>
+      <c r="E187">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>201</v>
+      </c>
+      <c r="D188" t="s">
+        <v>398</v>
+      </c>
+      <c r="E188">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>202</v>
+      </c>
+      <c r="D189" t="s">
+        <v>399</v>
+      </c>
+      <c r="E189">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>203</v>
+      </c>
+      <c r="D190" t="s">
+        <v>400</v>
+      </c>
+      <c r="E190">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>401</v>
+      </c>
+      <c r="E191">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>205</v>
+      </c>
+      <c r="D192" t="s">
+        <v>402</v>
+      </c>
+      <c r="E192">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>206</v>
+      </c>
+      <c r="D193" t="s">
+        <v>403</v>
+      </c>
+      <c r="E193">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>207</v>
+      </c>
+      <c r="D194" t="s">
+        <v>404</v>
+      </c>
+      <c r="E194">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>208</v>
+      </c>
+      <c r="D195" t="s">
+        <v>405</v>
+      </c>
+      <c r="E195">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>209</v>
+      </c>
+      <c r="D196" t="s">
+        <v>406</v>
+      </c>
+      <c r="E196">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>210</v>
+      </c>
+      <c r="D197" t="s">
+        <v>407</v>
+      </c>
+      <c r="E197">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>211</v>
+      </c>
+      <c r="D198" t="s">
+        <v>408</v>
+      </c>
+      <c r="E198">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>212</v>
+      </c>
+      <c r="D199" t="s">
+        <v>409</v>
+      </c>
+      <c r="E199">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>210</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>213</v>
+      </c>
+      <c r="D200" t="s">
+        <v>410</v>
+      </c>
+      <c r="E200">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>214</v>
+      </c>
+      <c r="D201" t="s">
+        <v>411</v>
+      </c>
+      <c r="E201">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>215</v>
+      </c>
+      <c r="D202" t="s">
+        <v>412</v>
+      </c>
+      <c r="E202">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>216</v>
+      </c>
+      <c r="D203" t="s">
+        <v>413</v>
+      </c>
+      <c r="E203">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>217</v>
+      </c>
+      <c r="D204" t="s">
+        <v>414</v>
+      </c>
+      <c r="E204">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>218</v>
+      </c>
+      <c r="D205" t="s">
+        <v>415</v>
+      </c>
+      <c r="E205">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>216</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>219</v>
+      </c>
+      <c r="D206" t="s">
+        <v>416</v>
+      </c>
+      <c r="E206">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>217</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>220</v>
+      </c>
+      <c r="D207" t="s">
+        <v>417</v>
+      </c>
+      <c r="E207">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
